--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Comp-Cd47.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Comp-Cd47.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.653906</v>
+        <v>1.254529666666667</v>
       </c>
       <c r="H2">
-        <v>1.961718</v>
+        <v>3.763589</v>
       </c>
       <c r="I2">
-        <v>0.00670030715761011</v>
+        <v>0.01270475613604028</v>
       </c>
       <c r="J2">
-        <v>0.00670030715761011</v>
+        <v>0.01270475613604028</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>46.33695966666667</v>
+        <v>55.848606</v>
       </c>
       <c r="N2">
-        <v>139.010879</v>
+        <v>167.545818</v>
       </c>
       <c r="O2">
-        <v>0.1993490803952133</v>
+        <v>0.2323375192077237</v>
       </c>
       <c r="P2">
-        <v>0.1993490803952133</v>
+        <v>0.2323375192077236</v>
       </c>
       <c r="Q2">
-        <v>30.30001594779133</v>
+        <v>70.063733068978</v>
       </c>
       <c r="R2">
-        <v>272.700143530122</v>
+        <v>630.573597620802</v>
       </c>
       <c r="S2">
-        <v>0.001335700070235041</v>
+        <v>0.002951791522786703</v>
       </c>
       <c r="T2">
-        <v>0.001335700070235041</v>
+        <v>0.002951791522786702</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.653906</v>
+        <v>1.254529666666667</v>
       </c>
       <c r="H3">
-        <v>1.961718</v>
+        <v>3.763589</v>
       </c>
       <c r="I3">
-        <v>0.00670030715761011</v>
+        <v>0.01270475613604028</v>
       </c>
       <c r="J3">
-        <v>0.00670030715761011</v>
+        <v>0.01270475613604028</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>253.528801</v>
       </c>
       <c r="O3">
-        <v>0.3635739425333109</v>
+        <v>0.3515710112922583</v>
       </c>
       <c r="P3">
-        <v>0.3635739425333109</v>
+        <v>0.3515710112922583</v>
       </c>
       <c r="Q3">
-        <v>55.26133471556866</v>
+        <v>106.0198007363099</v>
       </c>
       <c r="R3">
-        <v>497.352012440118</v>
+        <v>954.178206626789</v>
       </c>
       <c r="S3">
-        <v>0.00243605708947647</v>
+        <v>0.004466623962969204</v>
       </c>
       <c r="T3">
-        <v>0.00243605708947647</v>
+        <v>0.004466623962969203</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.653906</v>
+        <v>1.254529666666667</v>
       </c>
       <c r="H4">
-        <v>1.961718</v>
+        <v>3.763589</v>
       </c>
       <c r="I4">
-        <v>0.00670030715761011</v>
+        <v>0.01270475613604028</v>
       </c>
       <c r="J4">
-        <v>0.00670030715761011</v>
+        <v>0.01270475613604028</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>29.06683666666667</v>
+        <v>33.195992</v>
       </c>
       <c r="N4">
-        <v>87.20051000000001</v>
+        <v>99.58797600000001</v>
       </c>
       <c r="O4">
-        <v>0.1250502234324668</v>
+        <v>0.1380996766314891</v>
       </c>
       <c r="P4">
-        <v>0.1250502234324668</v>
+        <v>0.1380996766314891</v>
       </c>
       <c r="Q4">
-        <v>19.00697889735333</v>
+        <v>41.64535677842934</v>
       </c>
       <c r="R4">
-        <v>171.06281007618</v>
+        <v>374.8082110058641</v>
       </c>
       <c r="S4">
-        <v>0.0008378749071253008</v>
+        <v>0.001754522714069089</v>
       </c>
       <c r="T4">
-        <v>0.0008378749071253006</v>
+        <v>0.001754522714069089</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.653906</v>
+        <v>1.254529666666667</v>
       </c>
       <c r="H5">
-        <v>1.961718</v>
+        <v>3.763589</v>
       </c>
       <c r="I5">
-        <v>0.00670030715761011</v>
+        <v>0.01270475613604028</v>
       </c>
       <c r="J5">
-        <v>0.00670030715761011</v>
+        <v>0.01270475613604028</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>72.52790466666666</v>
+        <v>66.82284533333335</v>
       </c>
       <c r="N5">
-        <v>217.583714</v>
+        <v>200.468536</v>
       </c>
       <c r="O5">
-        <v>0.3120267536390091</v>
+        <v>0.277991792868529</v>
       </c>
       <c r="P5">
-        <v>0.3120267536390091</v>
+        <v>0.2779917928685289</v>
       </c>
       <c r="Q5">
-        <v>47.42643202896133</v>
+        <v>83.83124188174492</v>
       </c>
       <c r="R5">
-        <v>426.837888260652</v>
+        <v>754.4811769357041</v>
       </c>
       <c r="S5">
-        <v>0.002090675090773299</v>
+        <v>0.003531817936215282</v>
       </c>
       <c r="T5">
-        <v>0.002090675090773299</v>
+        <v>0.00353181793621528</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>288.359337</v>
       </c>
       <c r="I6">
-        <v>0.984900036429704</v>
+        <v>0.9734152842234517</v>
       </c>
       <c r="J6">
-        <v>0.984900036429704</v>
+        <v>0.9734152842234516</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>46.33695966666667</v>
+        <v>55.848606</v>
       </c>
       <c r="N6">
-        <v>139.010879</v>
+        <v>167.545818</v>
       </c>
       <c r="O6">
-        <v>0.1993490803952133</v>
+        <v>0.2323375192077237</v>
       </c>
       <c r="P6">
-        <v>0.1993490803952133</v>
+        <v>0.2323375192077236</v>
       </c>
       <c r="Q6">
-        <v>4453.898322691914</v>
+        <v>5368.155666178074</v>
       </c>
       <c r="R6">
-        <v>40085.08490422722</v>
+        <v>48313.40099560267</v>
       </c>
       <c r="S6">
-        <v>0.1963389165434736</v>
+        <v>0.226160892295358</v>
       </c>
       <c r="T6">
-        <v>0.1963389165434736</v>
+        <v>0.2261608922953579</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>288.359337</v>
       </c>
       <c r="I7">
-        <v>0.984900036429704</v>
+        <v>0.9734152842234517</v>
       </c>
       <c r="J7">
-        <v>0.984900036429704</v>
+        <v>0.9734152842234516</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>253.528801</v>
       </c>
       <c r="O7">
-        <v>0.3635739425333109</v>
+        <v>0.3515710112922583</v>
       </c>
       <c r="P7">
-        <v>0.3635739425333109</v>
+        <v>0.3515710112922583</v>
       </c>
       <c r="Q7">
         <v>8123.044107418326</v>
@@ -883,10 +883,10 @@
         <v>73107.39696676494</v>
       </c>
       <c r="S7">
-        <v>0.3580839892459491</v>
+        <v>0.3422245958817799</v>
       </c>
       <c r="T7">
-        <v>0.358083989245949</v>
+        <v>0.3422245958817799</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>288.359337</v>
       </c>
       <c r="I8">
-        <v>0.984900036429704</v>
+        <v>0.9734152842234517</v>
       </c>
       <c r="J8">
-        <v>0.984900036429704</v>
+        <v>0.9734152842234516</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.06683666666667</v>
+        <v>33.195992</v>
       </c>
       <c r="N8">
-        <v>87.20051000000001</v>
+        <v>99.58797600000001</v>
       </c>
       <c r="O8">
-        <v>0.1250502234324668</v>
+        <v>0.1380996766314891</v>
       </c>
       <c r="P8">
-        <v>0.1250502234324668</v>
+        <v>0.1380996766314891</v>
       </c>
       <c r="Q8">
-        <v>2793.897916629097</v>
+        <v>3190.791414725769</v>
       </c>
       <c r="R8">
-        <v>25145.08124966187</v>
+        <v>28717.12273253192</v>
       </c>
       <c r="S8">
-        <v>0.1231619696141792</v>
+        <v>0.1344283359794078</v>
       </c>
       <c r="T8">
-        <v>0.1231619696141791</v>
+        <v>0.1344283359794077</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>288.359337</v>
       </c>
       <c r="I9">
-        <v>0.984900036429704</v>
+        <v>0.9734152842234517</v>
       </c>
       <c r="J9">
-        <v>0.984900036429704</v>
+        <v>0.9734152842234516</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>72.52790466666666</v>
+        <v>66.82284533333335</v>
       </c>
       <c r="N9">
-        <v>217.583714</v>
+        <v>200.468536</v>
       </c>
       <c r="O9">
-        <v>0.3120267536390091</v>
+        <v>0.277991792868529</v>
       </c>
       <c r="P9">
-        <v>0.3120267536390091</v>
+        <v>0.2779917928685289</v>
       </c>
       <c r="Q9">
-        <v>6971.366167893068</v>
+        <v>6422.997125591183</v>
       </c>
       <c r="R9">
-        <v>62742.29551103762</v>
+        <v>57806.97413032065</v>
       </c>
       <c r="S9">
-        <v>0.3073151610261023</v>
+        <v>0.2706014600669061</v>
       </c>
       <c r="T9">
-        <v>0.3073151610261023</v>
+        <v>0.270601460066906</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.585629</v>
+        <v>1.151276666666667</v>
       </c>
       <c r="H10">
-        <v>1.756887</v>
+        <v>3.45383</v>
       </c>
       <c r="I10">
-        <v>0.006000700682367268</v>
+        <v>0.01165910195968263</v>
       </c>
       <c r="J10">
-        <v>0.006000700682367268</v>
+        <v>0.01165910195968263</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>46.33695966666667</v>
+        <v>55.848606</v>
       </c>
       <c r="N10">
-        <v>139.010879</v>
+        <v>167.545818</v>
       </c>
       <c r="O10">
-        <v>0.1993490803952133</v>
+        <v>0.2323375192077237</v>
       </c>
       <c r="P10">
-        <v>0.1993490803952133</v>
+        <v>0.2323375192077236</v>
       </c>
       <c r="Q10">
-        <v>27.13626735263033</v>
+        <v>64.29719695366001</v>
       </c>
       <c r="R10">
-        <v>244.226406173673</v>
+        <v>578.67477258294</v>
       </c>
       <c r="S10">
-        <v>0.001196234162756844</v>
+        <v>0.002708846825502572</v>
       </c>
       <c r="T10">
-        <v>0.001196234162756844</v>
+        <v>0.002708846825502571</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.585629</v>
+        <v>1.151276666666667</v>
       </c>
       <c r="H11">
-        <v>1.756887</v>
+        <v>3.45383</v>
       </c>
       <c r="I11">
-        <v>0.006000700682367268</v>
+        <v>0.01165910195968263</v>
       </c>
       <c r="J11">
-        <v>0.006000700682367268</v>
+        <v>0.01165910195968263</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>253.528801</v>
       </c>
       <c r="O11">
-        <v>0.3635739425333109</v>
+        <v>0.3515710112922583</v>
       </c>
       <c r="P11">
-        <v>0.3635739425333109</v>
+        <v>0.3515710112922583</v>
       </c>
       <c r="Q11">
-        <v>49.49127273360966</v>
+        <v>97.29393097309222</v>
       </c>
       <c r="R11">
-        <v>445.421454602487</v>
+        <v>875.6453787578299</v>
       </c>
       <c r="S11">
-        <v>0.002181698405050597</v>
+        <v>0.004099002266725172</v>
       </c>
       <c r="T11">
-        <v>0.002181698405050597</v>
+        <v>0.004099002266725171</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.585629</v>
+        <v>1.151276666666667</v>
       </c>
       <c r="H12">
-        <v>1.756887</v>
+        <v>3.45383</v>
       </c>
       <c r="I12">
-        <v>0.006000700682367268</v>
+        <v>0.01165910195968263</v>
       </c>
       <c r="J12">
-        <v>0.006000700682367268</v>
+        <v>0.01165910195968263</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>29.06683666666667</v>
+        <v>33.195992</v>
       </c>
       <c r="N12">
-        <v>87.20051000000001</v>
+        <v>99.58797600000001</v>
       </c>
       <c r="O12">
-        <v>0.1250502234324668</v>
+        <v>0.1380996766314891</v>
       </c>
       <c r="P12">
-        <v>0.1250502234324668</v>
+        <v>0.1380996766314891</v>
       </c>
       <c r="Q12">
-        <v>17.02238249026334</v>
+        <v>38.21777101645334</v>
       </c>
       <c r="R12">
-        <v>153.20144241237</v>
+        <v>343.95993914808</v>
       </c>
       <c r="S12">
-        <v>0.0007503889610813828</v>
+        <v>0.001610118210445732</v>
       </c>
       <c r="T12">
-        <v>0.0007503889610813827</v>
+        <v>0.001610118210445732</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.585629</v>
+        <v>1.151276666666667</v>
       </c>
       <c r="H13">
-        <v>1.756887</v>
+        <v>3.45383</v>
       </c>
       <c r="I13">
-        <v>0.006000700682367268</v>
+        <v>0.01165910195968263</v>
       </c>
       <c r="J13">
-        <v>0.006000700682367268</v>
+        <v>0.01165910195968263</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>72.52790466666666</v>
+        <v>66.82284533333335</v>
       </c>
       <c r="N13">
-        <v>217.583714</v>
+        <v>200.468536</v>
       </c>
       <c r="O13">
-        <v>0.3120267536390091</v>
+        <v>0.277991792868529</v>
       </c>
       <c r="P13">
-        <v>0.3120267536390091</v>
+        <v>0.2779917928685289</v>
       </c>
       <c r="Q13">
-        <v>42.47444428203532</v>
+        <v>76.93158263254224</v>
       </c>
       <c r="R13">
-        <v>382.269998538318</v>
+        <v>692.3842436928801</v>
       </c>
       <c r="S13">
-        <v>0.001872379153478445</v>
+        <v>0.003241134657009154</v>
       </c>
       <c r="T13">
-        <v>0.001872379153478445</v>
+        <v>0.003241134657009153</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2341223333333333</v>
+        <v>0.2192983333333333</v>
       </c>
       <c r="H14">
-        <v>0.702367</v>
+        <v>0.6578949999999999</v>
       </c>
       <c r="I14">
-        <v>0.002398955730318598</v>
+        <v>0.002220857680825461</v>
       </c>
       <c r="J14">
-        <v>0.002398955730318598</v>
+        <v>0.002220857680825461</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>46.33695966666667</v>
+        <v>55.848606</v>
       </c>
       <c r="N14">
-        <v>139.010879</v>
+        <v>167.545818</v>
       </c>
       <c r="O14">
-        <v>0.1993490803952133</v>
+        <v>0.2323375192077237</v>
       </c>
       <c r="P14">
-        <v>0.1993490803952133</v>
+        <v>0.2323375192077236</v>
       </c>
       <c r="Q14">
-        <v>10.84851711673256</v>
+        <v>12.24750621479</v>
       </c>
       <c r="R14">
-        <v>97.63665405059298</v>
+        <v>110.22755593311</v>
       </c>
       <c r="S14">
-        <v>0.00047822961874784</v>
+        <v>0.0005159885640764062</v>
       </c>
       <c r="T14">
-        <v>0.0004782296187478398</v>
+        <v>0.000515988564076406</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2341223333333333</v>
+        <v>0.2192983333333333</v>
       </c>
       <c r="H15">
-        <v>0.702367</v>
+        <v>0.6578949999999999</v>
       </c>
       <c r="I15">
-        <v>0.002398955730318598</v>
+        <v>0.002220857680825461</v>
       </c>
       <c r="J15">
-        <v>0.002398955730318598</v>
+        <v>0.002220857680825461</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>253.528801</v>
       </c>
       <c r="O15">
-        <v>0.3635739425333109</v>
+        <v>0.3515710112922583</v>
       </c>
       <c r="P15">
-        <v>0.3635739425333109</v>
+        <v>0.3515710112922583</v>
       </c>
       <c r="Q15">
-        <v>19.78558481910744</v>
+        <v>18.5328145037661</v>
       </c>
       <c r="R15">
-        <v>178.070263371967</v>
+        <v>166.795330533895</v>
       </c>
       <c r="S15">
-        <v>0.0008721977928348111</v>
+        <v>0.0007807891807839867</v>
       </c>
       <c r="T15">
-        <v>0.0008721977928348108</v>
+        <v>0.0007807891807839866</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2341223333333333</v>
+        <v>0.2192983333333333</v>
       </c>
       <c r="H16">
-        <v>0.702367</v>
+        <v>0.6578949999999999</v>
       </c>
       <c r="I16">
-        <v>0.002398955730318598</v>
+        <v>0.002220857680825461</v>
       </c>
       <c r="J16">
-        <v>0.002398955730318598</v>
+        <v>0.002220857680825461</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>29.06683666666667</v>
+        <v>33.195992</v>
       </c>
       <c r="N16">
-        <v>87.20051000000001</v>
+        <v>99.58797600000001</v>
       </c>
       <c r="O16">
-        <v>0.1250502234324668</v>
+        <v>0.1380996766314891</v>
       </c>
       <c r="P16">
-        <v>0.1250502234324668</v>
+        <v>0.1380996766314891</v>
       </c>
       <c r="Q16">
-        <v>6.805195623018889</v>
+        <v>7.279825718946666</v>
       </c>
       <c r="R16">
-        <v>61.24676060717</v>
+        <v>65.51843147052</v>
       </c>
       <c r="S16">
-        <v>0.0002999899500809373</v>
+        <v>0.0003066997275665551</v>
       </c>
       <c r="T16">
-        <v>0.0002999899500809372</v>
+        <v>0.0003066997275665549</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2341223333333333</v>
+        <v>0.2192983333333333</v>
       </c>
       <c r="H17">
-        <v>0.702367</v>
+        <v>0.6578949999999999</v>
       </c>
       <c r="I17">
-        <v>0.002398955730318598</v>
+        <v>0.002220857680825461</v>
       </c>
       <c r="J17">
-        <v>0.002398955730318598</v>
+        <v>0.002220857680825461</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>72.52790466666666</v>
+        <v>66.82284533333335</v>
       </c>
       <c r="N17">
-        <v>217.583714</v>
+        <v>200.468536</v>
       </c>
       <c r="O17">
-        <v>0.3120267536390091</v>
+        <v>0.277991792868529</v>
       </c>
       <c r="P17">
-        <v>0.3120267536390091</v>
+        <v>0.2779917928685289</v>
       </c>
       <c r="Q17">
-        <v>16.98040227233755</v>
+        <v>14.65413861019111</v>
       </c>
       <c r="R17">
-        <v>152.823620451038</v>
+        <v>131.88724749172</v>
       </c>
       <c r="S17">
-        <v>0.0007485383686550104</v>
+        <v>0.0006173802083985132</v>
       </c>
       <c r="T17">
-        <v>0.0007485383686550103</v>
+        <v>0.000617380208398513</v>
       </c>
     </row>
   </sheetData>
